--- a/document/tips/design/2.TypeAttrMapping.xlsx
+++ b/document/tips/design/2.TypeAttrMapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\STS\prayer\document\tips\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -194,18 +194,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,18 +569,18 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
-    <col min="2" max="19" width="6.875" style="2" customWidth="1"/>
-    <col min="20" max="21" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
+    <col min="2" max="19" width="6.85546875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="6.85546875" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" s="8"/>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -623,7 +623,7 @@
       </c>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" s="2" customFormat="1">
       <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -686,7 +686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -751,12 +751,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
@@ -816,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -881,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21">
       <c r="A25" s="6"/>
     </row>
   </sheetData>

--- a/document/tips/design/2.TypeAttrMapping.xlsx
+++ b/document/tips/design/2.TypeAttrMapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\STS\prayer\document\tips\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\STS37\prayer\document\tips\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -569,10 +569,10 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="19" width="6.85546875" style="2" customWidth="1"/>
@@ -1541,14 +1541,14 @@
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>29</v>
+      <c r="F16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>29</v>
@@ -1571,8 +1571,8 @@
       <c r="M16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>28</v>
+      <c r="N16" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>29</v>
@@ -2116,7 +2116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="6"/>
     </row>
   </sheetData>
